--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -108,7 +108,13 @@
     <t>ikke-etableret</t>
   </si>
   <si>
-    <t>Forsøgt, men ikke opnået</t>
+    <t>Kontakt forsøgt, men ikke opnået</t>
+  </si>
+  <si>
+    <t>PRO_spg</t>
+  </si>
+  <si>
+    <t>PRO-spørgeskema sendt til patienten via Digital Post</t>
   </si>
   <si>
     <t>System URI</t>
@@ -381,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +423,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-KontaktPatient.xlsx
+++ b/fhir/ValueSet-KontaktPatient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
